--- a/NLB Banka Krediti -      , 21.8.2025.xlsx
+++ b/NLB Banka Krediti -      , 21.8.2025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{D3EC8468-C6A5-4188-98C3-62CD4AED3B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60148406-535C-4699-B7A0-683D771774DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7480B-4644-48D4-9DC6-2077F33AFF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="69">
   <si>
     <t>Тип на кредит</t>
   </si>
@@ -281,11 +281,17 @@
   <si>
     <t>https://nlb.mk/%D0%A4%D0%B8%D0%B7%D0%B8%D1%87%D0%BA%D0%B8_%D0%BB%D0%B8%D1%86%D0%B0/%D0%9F%D0%BE%D0%BD%D1%83%D0%B4%D0%B0/%D0%9A%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8/%D0%9F%D0%BE%D1%82%D1%80%D0%BE%D1%88%D1%83%D0%B2%D0%B0%D1%87%D0%BA%D0%B8_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82_%D0%B7%D0%B0_%D1%80%D0%B5%D1%84%D0%B8%D0%BD%D0%B0%D0%BD%D1%81%D0%B8%D1%80%D0%B0%D1%9A%D0%B5.aspx</t>
   </si>
+  <si>
+    <t>1500000,00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0.00\ _д_е_н"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,11 +406,17 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,27 +701,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="92.85546875" customWidth="1"/>
-    <col min="13" max="13" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="92.88671875" customWidth="1"/>
+    <col min="13" max="13" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -724,7 +736,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -765,7 +777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -787,8 +799,8 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11">
-        <v>1500000</v>
+      <c r="H3" s="19">
+        <v>6000</v>
       </c>
       <c r="I3">
         <v>95</v>
@@ -807,7 +819,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="216" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -829,8 +841,8 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11">
-        <v>1500000</v>
+      <c r="H4" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="I4">
         <v>120</v>
@@ -844,11 +856,11 @@
       <c r="L4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -870,8 +882,8 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11">
-        <v>600000</v>
+      <c r="H5" s="17">
+        <v>1500000</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -885,11 +897,11 @@
       <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -926,11 +938,11 @@
       <c r="L6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -967,11 +979,11 @@
       <c r="L7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1008,11 +1020,11 @@
       <c r="L8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="330" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="330" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1047,11 +1059,11 @@
       <c r="L9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1086,11 +1098,11 @@
       <c r="L10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1124,7 @@
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="17">
         <v>1800000</v>
       </c>
       <c r="I11" s="14">
@@ -1129,7 +1141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="273" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="273" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1770,16 +1782,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="11"/>
       <c r="L28" s="13"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +1804,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1807,7 +1819,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1822,12 +1834,12 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -1844,18 +1856,18 @@
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>

--- a/NLB Banka Krediti -      , 21.8.2025.xlsx
+++ b/NLB Banka Krediti -      , 21.8.2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7480B-4644-48D4-9DC6-2077F33AFF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC98449-A531-4CBB-A6BB-02F2FFDD74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="0" windowWidth="22248" windowHeight="7788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t>https://nlb.mk/%D0%A4%D0%B8%D0%B7%D0%B8%D1%87%D0%BA%D0%B8_%D0%BB%D0%B8%D1%86%D0%B0/%D0%9F%D0%BE%D0%BD%D1%83%D0%B4%D0%B0/%D0%9A%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8/%D0%9F%D0%BE%D1%82%D1%80%D0%BE%D1%88%D1%83%D0%B2%D0%B0%D1%87%D0%BA%D0%B8_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82_%D0%B7%D0%B0_%D1%80%D0%B5%D1%84%D0%B8%D0%BD%D0%B0%D0%BD%D1%81%D0%B8%D1%80%D0%B0%D1%9A%D0%B5.aspx</t>
   </si>
   <si>
-    <t>1500000,00</t>
+    <t>1.500.000,00</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ _д_е_н"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _д_е_н"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -415,7 +415,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
